--- a/_Lang_Korean/Lang/KR/Game/Obj.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/_Lang_Korean/Lang/KR/Game/Obj.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="466">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,997 +44,1000 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">momiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぬる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白い花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雑草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">きのこ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rafflesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラフレシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pebble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石ころ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クリスタル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紫のマッシュルームツリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">christmas tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クリスマスツリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クリム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">緑のマッシュルームツリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cactus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サボテン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルルの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉱脈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gem ore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貴鉱脈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water lily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水蓮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木の支柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">窓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木枠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">舗装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">線路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">裂け目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の小道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wreck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残骸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大根</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト植物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabbage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャベツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トマト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carrot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">にんじん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イーモ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とうもろこし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">narrow road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">細い小道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青のマッシュルームツリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bird's nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鳥の巣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">林檎の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大きな岩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッドの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パインの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オークの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burnt tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">燃え尽きた木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moss grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苔草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vine bush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decayed fossil tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朽ちた化石樹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fossil tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">化石樹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big fossil tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大きな化石樹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朽ちた化石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bollard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">係船柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニーの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシアの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cracked floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欠けた床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切り株</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seaweed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海藻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貝殻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherry blossom tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">葡萄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pile of fallen leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">落ち葉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コットン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亡骸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">盛り上がった土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">稲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白線</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rainbow fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万色フルーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salt rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩塩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stalagmite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">石筍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decayed tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朽木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decayed wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">崩れた壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cattail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ガマ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huge rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨大な岩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sulfur rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硫黄岩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アピ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牧草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">化学物質</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ススキ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デブリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conveyor belt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベルトコンベア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fragments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">破片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banana tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バナナの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜜柑の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pear tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨の木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purple grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紫の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.24 fix 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">momiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぬる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白い花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雑草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mushroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">きのこ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rafflesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラフレシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pebble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石ころ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クリスタル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mushroom tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紫のマッシュルームツリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">christmas tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クリスマスツリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クリム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">緑のマッシュルームツリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cactus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サボテン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルルの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉱脈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gem ore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貴鉱脈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water lily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水蓮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木の支柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">窓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木枠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">舗装</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">track</t>
-  </si>
-  <si>
-    <t xml:space="preserve">線路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chasm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">裂け目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の小道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wreck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">残骸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大根</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テスト植物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cabbage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キャベツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トマト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carrot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">にんじん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イーモ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とうもろこし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">narrow road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">細い小道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青のマッシュルームツリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bird's nest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鳥の巣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apple tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">林檎の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">berry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大きな岩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッドの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パインの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オークの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burnt tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">燃え尽きた木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moss grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苔草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vine bush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蔓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decayed fossil tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朽ちた化石樹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fossil tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">化石樹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big fossil tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大きな化石樹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朽ちた化石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bollard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">係船柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニーの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシアの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cracked floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">欠けた床</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切り株</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seaweed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海藻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貝殻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherry blossom tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">葡萄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pile of fallen leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">落ち葉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コットン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">亡骸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">盛り上がった土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">稲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白線</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rainbow fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万色フルーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salt rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩塩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">border</t>
-  </si>
-  <si>
-    <t xml:space="preserve">枠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stalagmite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">石筍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decayed tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朽木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decayed wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">崩れた壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cattail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ガマ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huge rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巨大な岩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sulfur rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硫黄岩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アピ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pasture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">牧草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chemicals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">化学物質</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ススキ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デブリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conveyor belt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベルトコンベア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fragments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">破片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banana tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バナナの木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orange tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜜柑の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pear tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">梨の木</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purple grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紫の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.66</t>
@@ -1524,7 +1527,7 @@
         <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1543,7 +1546,7 @@
         <v>335</v>
       </c>
       <c r="C4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1562,7 +1565,7 @@
         <v>335</v>
       </c>
       <c r="C5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1581,7 +1584,7 @@
         <v>335</v>
       </c>
       <c r="C6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1600,7 +1603,7 @@
         <v>335</v>
       </c>
       <c r="C7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1619,7 +1622,7 @@
         <v>335</v>
       </c>
       <c r="C8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1638,7 +1641,7 @@
         <v>335</v>
       </c>
       <c r="C9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1657,7 +1660,7 @@
         <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1676,7 +1679,7 @@
         <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1695,7 +1698,7 @@
         <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1714,7 +1717,7 @@
         <v>335</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1733,7 +1736,7 @@
         <v>335</v>
       </c>
       <c r="C14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1752,7 +1755,7 @@
         <v>335</v>
       </c>
       <c r="C15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1771,7 +1774,7 @@
         <v>335</v>
       </c>
       <c r="C16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1790,7 +1793,7 @@
         <v>336</v>
       </c>
       <c r="C17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1809,7 +1812,7 @@
         <v>335</v>
       </c>
       <c r="C18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -1828,7 +1831,7 @@
         <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -1847,7 +1850,7 @@
         <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -1866,7 +1869,7 @@
         <v>335</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -1885,7 +1888,7 @@
         <v>335</v>
       </c>
       <c r="C22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -1904,7 +1907,7 @@
         <v>337</v>
       </c>
       <c r="C23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -1923,7 +1926,7 @@
         <v>335</v>
       </c>
       <c r="C24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -1942,7 +1945,7 @@
         <v>335</v>
       </c>
       <c r="C25" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -1961,7 +1964,7 @@
         <v>335</v>
       </c>
       <c r="C26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -1980,7 +1983,7 @@
         <v>338</v>
       </c>
       <c r="C27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -1999,7 +2002,7 @@
         <v>335</v>
       </c>
       <c r="C28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2018,7 +2021,7 @@
         <v>335</v>
       </c>
       <c r="C29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2037,7 +2040,7 @@
         <v>335</v>
       </c>
       <c r="C30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2056,7 +2059,7 @@
         <v>335</v>
       </c>
       <c r="C31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2075,7 +2078,7 @@
         <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2094,7 +2097,7 @@
         <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2113,7 +2116,7 @@
         <v>335</v>
       </c>
       <c r="C34" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2132,7 +2135,7 @@
         <v>335</v>
       </c>
       <c r="C35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2151,7 +2154,7 @@
         <v>335</v>
       </c>
       <c r="C36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2170,7 +2173,7 @@
         <v>339</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
@@ -2189,7 +2192,7 @@
         <v>335</v>
       </c>
       <c r="C38" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
@@ -2208,7 +2211,7 @@
         <v>335</v>
       </c>
       <c r="C39" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2227,7 +2230,7 @@
         <v>335</v>
       </c>
       <c r="C40" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2246,7 +2249,7 @@
         <v>335</v>
       </c>
       <c r="C41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2265,7 +2268,7 @@
         <v>335</v>
       </c>
       <c r="C42" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2281,10 +2284,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="C43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2300,10 +2303,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="C44" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2319,10 +2322,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="C45" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2341,7 +2344,7 @@
         <v>335</v>
       </c>
       <c r="C46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D46" t="s">
         <v>82</v>
@@ -2360,7 +2363,7 @@
         <v>335</v>
       </c>
       <c r="C47" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2379,7 +2382,7 @@
         <v>335</v>
       </c>
       <c r="C48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2398,7 +2401,7 @@
         <v>335</v>
       </c>
       <c r="C49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
@@ -2417,7 +2420,7 @@
         <v>335</v>
       </c>
       <c r="C50" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2436,7 +2439,7 @@
         <v>335</v>
       </c>
       <c r="C51" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2452,10 +2455,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2474,7 +2477,7 @@
         <v>336</v>
       </c>
       <c r="C53" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2493,7 +2496,7 @@
         <v>335</v>
       </c>
       <c r="C54" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2512,7 +2515,7 @@
         <v>335</v>
       </c>
       <c r="C55" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D55" t="s">
         <v>159</v>
@@ -2531,7 +2534,7 @@
         <v>335</v>
       </c>
       <c r="C56" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2550,7 +2553,7 @@
         <v>335</v>
       </c>
       <c r="C57" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2569,7 +2572,7 @@
         <v>335</v>
       </c>
       <c r="C58" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2588,7 +2591,7 @@
         <v>335</v>
       </c>
       <c r="C59" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2607,7 +2610,7 @@
         <v>335</v>
       </c>
       <c r="C60" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2626,7 +2629,7 @@
         <v>335</v>
       </c>
       <c r="C61" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2645,7 +2648,7 @@
         <v>335</v>
       </c>
       <c r="C62" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2664,7 +2667,7 @@
         <v>335</v>
       </c>
       <c r="C63" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2683,7 +2686,7 @@
         <v>335</v>
       </c>
       <c r="C64" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -2702,7 +2705,7 @@
         <v>335</v>
       </c>
       <c r="C65" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -2721,7 +2724,7 @@
         <v>335</v>
       </c>
       <c r="C66" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -2740,7 +2743,7 @@
         <v>335</v>
       </c>
       <c r="C67" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -2759,7 +2762,7 @@
         <v>335</v>
       </c>
       <c r="C68" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D68" t="s">
         <v>183</v>
@@ -2778,7 +2781,7 @@
         <v>335</v>
       </c>
       <c r="C69" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D69" t="s">
         <v>200</v>
@@ -2797,7 +2800,7 @@
         <v>335</v>
       </c>
       <c r="C70" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D70" t="s">
         <v>97</v>
@@ -2816,7 +2819,7 @@
         <v>335</v>
       </c>
       <c r="C71" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D71" t="s">
         <v>205</v>
@@ -2835,7 +2838,7 @@
         <v>335</v>
       </c>
       <c r="C72" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D72" t="s">
         <v>208</v>
@@ -2854,7 +2857,7 @@
         <v>335</v>
       </c>
       <c r="C73" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D73" t="s">
         <v>211</v>
@@ -2873,7 +2876,7 @@
         <v>335</v>
       </c>
       <c r="C74" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D74" t="s">
         <v>214</v>
@@ -2892,7 +2895,7 @@
         <v>335</v>
       </c>
       <c r="C75" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D75" t="s">
         <v>217</v>
@@ -2911,7 +2914,7 @@
         <v>335</v>
       </c>
       <c r="C76" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D76" t="s">
         <v>220</v>
@@ -2930,7 +2933,7 @@
         <v>335</v>
       </c>
       <c r="C77" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D77" t="s">
         <v>223</v>
@@ -2949,7 +2952,7 @@
         <v>335</v>
       </c>
       <c r="C78" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D78" t="s">
         <v>226</v>
@@ -2968,7 +2971,7 @@
         <v>335</v>
       </c>
       <c r="C79" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D79" t="s">
         <v>229</v>
@@ -2987,7 +2990,7 @@
         <v>335</v>
       </c>
       <c r="C80" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D80" t="s">
         <v>232</v>
@@ -3003,10 +3006,10 @@
         <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="C81" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D81" t="s">
         <v>235</v>
@@ -3025,7 +3028,7 @@
         <v>335</v>
       </c>
       <c r="C82" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D82" t="s">
         <v>238</v>
@@ -3044,7 +3047,7 @@
         <v>335</v>
       </c>
       <c r="C83" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D83" t="s">
         <v>241</v>
@@ -3060,10 +3063,10 @@
         <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C84" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D84" t="s">
         <v>243</v>
@@ -3079,10 +3082,10 @@
         <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C85" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D85" t="s">
         <v>246</v>
@@ -3098,10 +3101,10 @@
         <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C86" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -3120,7 +3123,7 @@
         <v>339</v>
       </c>
       <c r="C87" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D87" t="s">
         <v>250</v>
@@ -3139,7 +3142,7 @@
         <v>339</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -3158,7 +3161,7 @@
         <v>339</v>
       </c>
       <c r="C89" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -3177,7 +3180,7 @@
         <v>339</v>
       </c>
       <c r="C90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -3193,10 +3196,10 @@
         <v>255</v>
       </c>
       <c r="B91" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C91" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D91" t="s">
         <v>256</v>
@@ -3212,10 +3215,10 @@
         <v>258</v>
       </c>
       <c r="B92" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C92" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D92" t="s">
         <v>259</v>
@@ -3231,10 +3234,10 @@
         <v>261</v>
       </c>
       <c r="B93" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C93" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D93" t="s">
         <v>262</v>
@@ -3250,10 +3253,10 @@
         <v>264</v>
       </c>
       <c r="B94" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C94" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D94" t="s">
         <v>265</v>
@@ -3269,10 +3272,10 @@
         <v>267</v>
       </c>
       <c r="B95" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C95" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D95" t="s">
         <v>268</v>
@@ -3288,10 +3291,10 @@
         <v>270</v>
       </c>
       <c r="B96" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C96" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D96" t="s">
         <v>271</v>
@@ -3307,10 +3310,10 @@
         <v>273</v>
       </c>
       <c r="B97" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C97" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D97" t="s">
         <v>274</v>
@@ -3326,10 +3329,10 @@
         <v>276</v>
       </c>
       <c r="B98" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C98" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D98" t="s">
         <v>277</v>
@@ -3348,7 +3351,7 @@
         <v>338</v>
       </c>
       <c r="C99" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D99" t="s">
         <v>277</v>
@@ -3367,7 +3370,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3386,7 +3389,7 @@
         <v>338</v>
       </c>
       <c r="C101" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3405,7 +3408,7 @@
         <v>338</v>
       </c>
       <c r="C102" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D102" t="s">
         <v>283</v>
@@ -3424,7 +3427,7 @@
         <v>338</v>
       </c>
       <c r="C103" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D103" t="s">
         <v>286</v>
@@ -3443,7 +3446,7 @@
         <v>338</v>
       </c>
       <c r="C104" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3462,7 +3465,7 @@
         <v>338</v>
       </c>
       <c r="C105" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D105" t="s">
         <v>290</v>
@@ -3481,7 +3484,7 @@
         <v>338</v>
       </c>
       <c r="C106" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D106" t="s">
         <v>293</v>
@@ -3497,10 +3500,10 @@
         <v>295</v>
       </c>
       <c r="B107" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C107" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D107" t="s">
         <v>296</v>
@@ -3516,10 +3519,10 @@
         <v>298</v>
       </c>
       <c r="B108" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C108" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D108" t="s">
         <v>299</v>
@@ -3535,10 +3538,10 @@
         <v>301</v>
       </c>
       <c r="B109" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C109" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -3554,10 +3557,10 @@
         <v>302</v>
       </c>
       <c r="B110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C110" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D110" t="s">
         <v>303</v>
@@ -3573,10 +3576,10 @@
         <v>305</v>
       </c>
       <c r="B111" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C111" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D111" t="s">
         <v>306</v>
@@ -3592,10 +3595,10 @@
         <v>308</v>
       </c>
       <c r="B112" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C112" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D112" t="s">
         <v>309</v>
@@ -3611,10 +3614,10 @@
         <v>311</v>
       </c>
       <c r="B113" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C113" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D113" t="s">
         <v>312</v>
@@ -3630,10 +3633,10 @@
         <v>314</v>
       </c>
       <c r="B114" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C114" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D114" t="s">
         <v>315</v>
@@ -3649,10 +3652,10 @@
         <v>317</v>
       </c>
       <c r="B115" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C115" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D115" t="s">
         <v>318</v>
@@ -3668,10 +3671,10 @@
         <v>320</v>
       </c>
       <c r="B116" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C116" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D116" t="s">
         <v>321</v>
@@ -3687,10 +3690,10 @@
         <v>323</v>
       </c>
       <c r="B117" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C117" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D117" t="s">
         <v>324</v>
@@ -3706,10 +3709,10 @@
         <v>326</v>
       </c>
       <c r="B118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C118" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D118" t="s">
         <v>327</v>
@@ -3725,10 +3728,10 @@
         <v>329</v>
       </c>
       <c r="B119" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C119" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D119" t="s">
         <v>330</v>
@@ -3744,10 +3747,10 @@
         <v>332</v>
       </c>
       <c r="B120" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C120" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D120" t="s">
         <v>333</v>

--- a/_Lang_Korean/Lang/KR/Game/Obj.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.25</t>
+    <t xml:space="preserve">EA 23.26 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
